--- a/Document/GreatStar外贸财务设计(hbh).xlsx
+++ b/Document/GreatStar外贸财务设计(hbh).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="9675" windowHeight="7515" tabRatio="890" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="9675" windowHeight="7485" tabRatio="890" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="总体说明" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="业务收汇" sheetId="6" r:id="rId19"/>
     <sheet name="单据基类" sheetId="26" r:id="rId20"/>
     <sheet name="单据类型基类" sheetId="25" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId22"/>
+    <sheet name="费用付款通知单" sheetId="30" r:id="rId22"/>
+    <sheet name="出运付款核销" sheetId="32" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">付款通知单!$A$1:$Y$191</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="1395">
   <si>
     <t>1、</t>
   </si>
@@ -4659,43 +4660,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赋默认值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增：把数据加入到指定的列。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入值得次序要与字段列表的次序相同。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>②删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DElETE命令用于从表里删除正行数据，它不能删除某一列数据，而是删除行里全部字段的数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修改：UPDATE修改表里的现有数据。不增加也不删除数据，只是在现有数据上进行修改。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>①新增</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6018,12 +5983,1190 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扣款金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>扣款金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扣款登记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扣款金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扣款登记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已扣款金额</t>
+    </r>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>供应商扣款登记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扣款金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，扣款状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未扣款</t>
+    </r>
+  </si>
+  <si>
+    <t>预付金额默认等于可付金额，但不允许大于可付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期、预计付款日期默认等于当前日期，可改</t>
+  </si>
+  <si>
+    <r>
+      <t>预付款日期不允许小于业务日期，记账期间等于预付款日期中的年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月所对应的记账期间，不允许改</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可付款金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付款金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付扣回金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已红冲金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付挪入金额</t>
+    </r>
+  </si>
+  <si>
+    <t>预付金额不允许大于来源采购订单总金额-预付单金额-付款金额+预付扣回金额+已红冲金额+预付挪出金额-预付挪入金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已红冲金额=采购订单.已红冲金额-实付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实付金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已核销金额</t>
+    </r>
+  </si>
+  <si>
+    <t>挪出金额不允许大于可挪出金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本次挪出金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(预付款通知单行）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可退款金额=实付金额-已核销金额-已红冲金额-挪出金额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次退款金额为0，点击【确认红冲】时，系统认定为本次不进行红冲</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 页面按钮动作：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、实体事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、【红冲】，弹出红冲界面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、【请款确认】，生成请款确认单，请款确认单审核后，生成一张已审核的付款单---标准产品逻辑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、【批量预付】，弹出拉单查询界面：供应商必须录入，以保证一个供应商只能对应一个预付款单。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、【确认退款】，生成一张单据类型中业务类型为“应收借项账户单”的开立的应收单（一期一阶段一批暂不实现），应收单生成后，调用系统的应收单提交、审核API服务提交和审核当前应收单。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、【确认红冲】，根据录入的单据类型的业务类型，生成一张已审核状态的预付款通知单，并记录来源单据信息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、【确认挪入】，校验预付款通知单行中的本次挪出金额必须等于勾选的采购订单中本次挪入金额的合计。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、【查询】，弹出过滤条件录入界面，录入条件后，点击确认，关闭过滤条件界面，按照查询条件加载采购订单信息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用付款通知单头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用付款通知单行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用付款通知单子行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用付款通知单类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户费用，运费，杂费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开立，审核，已审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计期间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计期间档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组织</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">组织档案 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已生成请款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃审人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃审日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展字段集合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工录入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动增长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票号档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选择，发票号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据来源单据带出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十进制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工录入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代缴税费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocNo</t>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocLineNo</t>
+  </si>
+  <si>
+    <t>CalcDept</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salesman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountingPeriod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessOrg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviewer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuditDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abandoned</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbandonDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtensibleField</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentCost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS_FI_PaymentCost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentCostLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS_FI_PaymentCostLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出运明细单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出运明细单行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动增长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则与约束</t>
+  </si>
+  <si>
+    <t>规则与约束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commission</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderLineNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipmentDetails</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipmentDetailsLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvoiceGroup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpenseItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxationPay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceNumber</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关发票号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出运发票号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CabinetType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CabinetNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>ShipmentInvoiceNo.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomsInvoiceNo.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用付款通知单子行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、页面按钮动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【复核】，生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标准产品的请款单</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长整数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长整数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6189,6 +7332,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -6357,7 +7515,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6460,9 +7618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6517,6 +7672,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6532,13 +7690,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6556,6 +7726,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219237</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591194</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953537" y="8924925"/>
+          <a:ext cx="5858357" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12669</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="2228850"/>
+          <a:ext cx="5499069" cy="3700593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>64427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>434842</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="12923177"/>
+          <a:ext cx="5911717" cy="2021374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127727</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393669</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5614127" y="1714500"/>
+          <a:ext cx="5066542" cy="2454633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6901,13 +8257,13 @@
       <c r="C11" t="s">
         <v>1140</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>1141</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
@@ -6918,13 +8274,13 @@
       <c r="C14" t="s">
         <v>1142</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>1145</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6977,7 +8333,7 @@
       <c r="F4" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7081,7 +8437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -7125,7 +8481,7 @@
       <c r="F4" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>1111</v>
       </c>
       <c r="H4" s="36"/>
@@ -7166,7 +8522,7 @@
       <c r="F7" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>1098</v>
       </c>
       <c r="H7" s="35"/>
@@ -7559,8 +8915,8 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="3" t="s">
@@ -8038,8 +9394,8 @@
       <c r="H78" s="42"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
     </row>
     <row r="80" spans="2:8">
       <c r="D80" s="5" t="s">
@@ -8696,10 +10052,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P188"/>
+  <dimension ref="A2:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N199"/>
+    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8708,14 +10064,6 @@
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="L1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
     <row r="2" spans="1:14">
       <c r="A2" s="31" t="s">
         <v>1072</v>
@@ -8723,12 +10071,7 @@
       <c r="B2" s="31" t="s">
         <v>1083</v>
       </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="57">
-        <v>2958465</v>
-      </c>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:14">
       <c r="D3" s="32" t="s">
@@ -8743,12 +10086,6 @@
       <c r="G3" s="32" t="s">
         <v>1110</v>
       </c>
-      <c r="L3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="D4" s="32" t="s">
@@ -8760,14 +10097,8 @@
       <c r="F4" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>1112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8833,9 +10164,6 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="L10" t="s">
-        <v>1186</v>
-      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
@@ -8851,9 +10179,6 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="L11" t="s">
-        <v>1187</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="C12" t="s">
@@ -8894,7 +10219,7 @@
         <v>352</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8909,7 +10234,7 @@
         <v>355</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8938,7 +10263,7 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="4:13">
       <c r="D19" s="8" t="s">
@@ -8951,7 +10276,7 @@
         <v>231</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -9031,7 +10356,7 @@
         <v>368</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9046,7 +10371,7 @@
         <v>371</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9087,7 +10412,7 @@
         <v>377</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9180,7 +10505,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -9195,7 +10520,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -9236,7 +10561,7 @@
         <v>62</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="H40" s="8"/>
     </row>
@@ -9276,7 +10601,7 @@
         <v>74</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="H43" s="8"/>
     </row>
@@ -9381,8 +10706,8 @@
       <c r="F51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="58" t="s">
-        <v>1225</v>
+      <c r="G51" s="57" t="s">
+        <v>1216</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -9396,8 +10721,8 @@
       <c r="F52" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G52" s="58" t="s">
-        <v>1226</v>
+      <c r="G52" s="57" t="s">
+        <v>1217</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -9626,8 +10951,8 @@
       <c r="F71" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G71" s="58" t="s">
-        <v>1227</v>
+      <c r="G71" s="57" t="s">
+        <v>1218</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -9642,7 +10967,7 @@
         <v>446</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="H72" s="8"/>
     </row>
@@ -10396,8 +11721,8 @@
       <c r="H133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J133" s="61" t="s">
-        <v>1195</v>
+      <c r="J133" s="60" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="134" spans="3:10">
@@ -10412,8 +11737,8 @@
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-      <c r="J134" s="58" t="s">
-        <v>1229</v>
+      <c r="J134" s="57" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="135" spans="3:10">
@@ -10428,8 +11753,8 @@
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-      <c r="J135" s="58" t="s">
-        <v>1190</v>
+      <c r="J135" s="57" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="136" spans="3:10">
@@ -10444,8 +11769,8 @@
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-      <c r="J136" s="58" t="s">
-        <v>1191</v>
+      <c r="J136" s="57" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="137" spans="3:10">
@@ -10460,8 +11785,8 @@
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-      <c r="J137" s="60" t="s">
-        <v>1194</v>
+      <c r="J137" s="59" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="138" spans="3:10">
@@ -10583,8 +11908,8 @@
       <c r="H150" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J150" s="59" t="s">
-        <v>1192</v>
+      <c r="J150" s="58" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="151" spans="3:10">
@@ -10599,8 +11924,8 @@
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
-      <c r="J151" s="59" t="s">
-        <v>1193</v>
+      <c r="J151" s="58" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="152" spans="3:10">
@@ -10683,140 +12008,140 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B161" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="B163" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="C163" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="164" spans="1:16">
-      <c r="C164" s="63" t="s">
-        <v>1203</v>
+      <c r="C164" s="62" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="165" spans="1:16">
-      <c r="C165" s="58" t="s">
-        <v>1202</v>
+      <c r="C165" s="57" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="166" spans="1:16">
-      <c r="C166" s="58" t="s">
-        <v>1208</v>
+      <c r="C166" s="57" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="167" spans="1:16">
-      <c r="C167" s="58" t="s">
-        <v>1209</v>
+      <c r="C167" s="57" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="168" spans="1:16">
-      <c r="C168" s="58" t="s">
-        <v>1210</v>
+      <c r="C168" s="57" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="169" spans="1:16">
-      <c r="C169" s="58" t="s">
-        <v>1214</v>
+      <c r="C169" s="57" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="B171" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C171" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="E171" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F171" s="59" t="s">
-        <v>1206</v>
+        <v>1198</v>
+      </c>
+      <c r="F171" s="58" t="s">
+        <v>1197</v>
       </c>
       <c r="O171" t="s">
-        <v>1205</v>
-      </c>
-      <c r="P171" s="58" t="s">
-        <v>1204</v>
+        <v>1196</v>
+      </c>
+      <c r="P171" s="57" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="172" spans="1:16">
-      <c r="F172" s="59" t="s">
-        <v>1196</v>
+      <c r="F172" s="58" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="173" spans="1:16">
-      <c r="F173" s="59" t="s">
-        <v>1197</v>
+      <c r="F173" s="58" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="174" spans="1:16">
-      <c r="F174" s="62" t="s">
-        <v>1198</v>
+      <c r="F174" s="61" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="175" spans="1:16">
-      <c r="F175" s="59" t="s">
-        <v>1199</v>
+      <c r="F175" s="58" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="176" spans="1:16">
-      <c r="F176" s="59" t="s">
-        <v>1200</v>
+      <c r="F176" s="58" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="177" spans="2:6">
-      <c r="F177" s="59" t="s">
-        <v>1201</v>
+      <c r="F177" s="58" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="178" spans="2:6">
       <c r="E178" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F178" s="60" t="s">
-        <v>1213</v>
+        <v>1202</v>
+      </c>
+      <c r="F178" s="59" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="179" spans="2:6">
-      <c r="F179" s="64" t="s">
-        <v>1212</v>
+      <c r="F179" s="63" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="180" spans="2:6">
-      <c r="F180" s="59"/>
+      <c r="F180" s="58"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="F181" s="59"/>
+      <c r="F181" s="58"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="F182" s="59"/>
+      <c r="F182" s="58"/>
     </row>
     <row r="183" spans="2:6">
-      <c r="F183" s="59"/>
+      <c r="F183" s="58"/>
     </row>
     <row r="184" spans="2:6">
-      <c r="F184" s="59"/>
+      <c r="F184" s="58"/>
     </row>
     <row r="185" spans="2:6">
-      <c r="F185" s="59"/>
+      <c r="F185" s="58"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="F186" s="59"/>
+      <c r="F186" s="58"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C188" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -10950,7 +12275,7 @@
         <v>565</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10965,7 +12290,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -10980,7 +12305,7 @@
         <v>570</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -10995,7 +12320,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -11004,39 +12329,39 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B19" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="C21" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C30" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C37" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="C38" s="72" t="s">
-        <v>1234</v>
+      <c r="C38" s="64" t="s">
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -11053,8 +12378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11080,7 +12405,7 @@
       <c r="F3" s="32" t="s">
         <v>1116</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8">
@@ -11093,7 +12418,7 @@
       <c r="F4" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8">
@@ -11106,7 +12431,7 @@
       <c r="F5" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="43"/>
     </row>
     <row r="7" spans="1:8">
@@ -11402,7 +12727,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
-      <c r="G30" s="49"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="3:8">
@@ -11812,7 +13137,7 @@
   <dimension ref="A2:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12157,10 +13482,10 @@
       <c r="C30" t="s">
         <v>1119</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="45" t="s">
         <v>1120</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="45" t="s">
         <v>1116</v>
       </c>
       <c r="F30" s="43"/>
@@ -13638,7 +14963,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13816,7 +15141,7 @@
       <c r="C8" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" t="s">
         <v>1146</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -13928,7 +15253,7 @@
         <v>981</v>
       </c>
       <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="26"/>
       <c r="G13" s="25"/>
       <c r="H13" s="27">
@@ -14229,7 +15554,6 @@
     <hyperlink ref="D18" location="业务员奖金汇率!A1" display="业务收汇"/>
     <hyperlink ref="D4" location="业务员奖金汇率!A1" display="新产品系数"/>
     <hyperlink ref="D5" location="业务员奖金汇率!A1" display="产品降价档案"/>
-    <hyperlink ref="D8" location="预付款通知单!A1" display="预付款通知单"/>
     <hyperlink ref="D15" location="业务员奖金汇率!A1" display="成本结算单"/>
     <hyperlink ref="D16" location="业务员奖金汇率!A1" display="成本结算调整单"/>
     <hyperlink ref="D10" location="业务员奖金汇率!A1" display="业务员奖金"/>
@@ -14238,7 +15562,6 @@
     <hyperlink ref="E7" location="扣款登记单据类型!A1" display="扣款登记单据类型"/>
     <hyperlink ref="E8" location="预付款通知单单据类型!A1" display="预付款通知单单据类型"/>
     <hyperlink ref="E10" location="业务员奖金单据类型!A1" display="业务员奖金单据类型"/>
-    <hyperlink ref="E12:E13" location="付款通知单单据类型!A1" display="付款通知单单据类型!A1"/>
     <hyperlink ref="D12:D13" location="付款通知单!A1" display="付款通知单"/>
     <hyperlink ref="D3:D18" location="业务员奖金汇率!A1" display="业务员奖金汇率"/>
     <hyperlink ref="D12" location="付款通知单!A1" display="付款通知单!A1"/>
@@ -14895,68 +16218,1018 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="D2" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" s="32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" s="32" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="71" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="71" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="71" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="71" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="D20" s="73" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="D21" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" s="76" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="73" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="73" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="73" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="73" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="73" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="4:12">
+      <c r="D30" s="73" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="4:12">
+      <c r="D31" s="73" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="4:12">
+      <c r="D32" s="73" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="D33" s="73" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="D34" s="73" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="D35" s="73" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="D36" s="73" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="3:8" ht="14.25">
+      <c r="D37" s="74" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="71" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="D44" s="71" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="D45" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="D46" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="D47" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="D48" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="D49" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="D50" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="D51" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="D52" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="D53" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="D54" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="D55" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="D56" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="D57" s="77" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="D58" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="D59" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="71" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="D65" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="D66" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="D67" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="D68" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="D69" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="D70" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="C75" s="78"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="C76" s="57"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="C77" s="57"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="C78" s="57"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="C79" s="57"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="C80" s="57"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" s="58" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128" t="s">
         <v>1163</v>
       </c>
-      <c r="B1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="C90" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="B109" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="B124" t="s">
-        <v>1171</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="D2" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -14969,8 +17242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15199,39 +17472,39 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B25" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="C27" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="D28" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="E28" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="D29" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E29" s="57">
+        <v>1175</v>
+      </c>
+      <c r="E29" s="56">
         <v>2958465</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="D30" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -15239,36 +17512,36 @@
     </row>
     <row r="31" spans="1:8">
       <c r="D31" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="E31" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C36" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C43" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -15986,7 +18259,7 @@
       <c r="F4" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -16031,7 +18304,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>1034</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -16359,7 +18632,7 @@
       <c r="E34" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="55" t="s">
         <v>328</v>
       </c>
       <c r="G34" s="8"/>
@@ -16524,7 +18797,7 @@
       <c r="F4" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -16611,10 +18884,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J94"/>
+  <dimension ref="A2:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16657,7 +18930,7 @@
       <c r="F4" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -16684,7 +18957,7 @@
         <v>626</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
@@ -16774,7 +19047,7 @@
       <c r="E16" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="55" t="s">
         <v>546</v>
       </c>
       <c r="G16" s="8"/>
@@ -17257,7 +19530,7 @@
       <c r="E54" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="55" t="s">
         <v>551</v>
       </c>
       <c r="G54" s="8"/>
@@ -17575,7 +19848,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="1:10">
       <c r="D81" s="8" t="s">
         <v>656</v>
       </c>
@@ -17588,7 +19861,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="1:10">
       <c r="D82" s="8" t="s">
         <v>284</v>
       </c>
@@ -17601,7 +19874,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="1:10">
       <c r="D83" s="8" t="s">
         <v>282</v>
       </c>
@@ -17614,7 +19887,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="1:10">
       <c r="D84" s="8" t="s">
         <v>324</v>
       </c>
@@ -17627,7 +19900,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="1:10">
       <c r="D85" s="8" t="s">
         <v>363</v>
       </c>
@@ -17640,7 +19913,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="1:10">
       <c r="D86" s="8" t="s">
         <v>122</v>
       </c>
@@ -17653,7 +19926,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="1:10">
       <c r="D87" s="8" t="s">
         <v>631</v>
       </c>
@@ -17666,7 +19939,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="1:10">
       <c r="D88" s="8" t="s">
         <v>423</v>
       </c>
@@ -17679,17 +19952,152 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="92" spans="2:10">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="3"/>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="C93" s="58" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="C94" s="58" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="C95" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="C96" s="58" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" s="58" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" s="58" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="C99" s="58" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" s="58" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" s="57" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" s="58" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="C105" s="58" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" s="58" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" s="58" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" s="59" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B126" s="31"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>1244</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -17699,6 +20107,7 @@
     <hyperlink ref="F54" location="预付款通知单!A1" display="预付款通知单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17747,7 +20156,7 @@
       <c r="F7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>1099</v>
       </c>
     </row>

--- a/Document/GreatStar外贸财务设计(hbh).xlsx
+++ b/Document/GreatStar外贸财务设计(hbh).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="9675" windowHeight="7485" tabRatio="890" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="9675" windowHeight="7485" tabRatio="890" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="总体说明" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="1501">
   <si>
     <t>1、</t>
   </si>
@@ -6559,10 +6559,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>费用付款通知单子行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单据类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7161,12 +7157,1070 @@
     <t>日期时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>费用付款通知单子行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentCostLine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款通知单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回写字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实时汇总行 金额计算）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单整单金额 分批转  预付款通知单 （非是行对应关系，是整单金额对应，可分批）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付挪入金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有字段7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款通知单—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请款单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请款单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款通知单—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单（+扣款）—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存时，如果单据类型中的业务类型为“蓝字”，校验：</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【计算】创建一个后台调度计算当前勾选的会计期间的所有产品采购业务员的奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【补算】校验通过后，删除勾选的会计期间对应的单据状态为开立的产品采购业务员奖金计算结果，即“产品采购业务员奖金”实体，否则不允许取消，需要手工先将产品采购业务员奖金结算结果弃审后，再进行取消；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（包装业务员奖金计算  包装采购业务员奖金）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>—&gt;业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员奖金—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">包装业务员奖金   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">采购业务员奖金      </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>—&gt;业务员奖金明细页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款通知单-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选的会计期间必须是当前月度前的会计期间并且期间状态是“未计算”的；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选的会计期间前一个会计期间必须已完成计算，如果勾选多个，则必须是连续性的会计期间，中间不允许出现未计算的或者没有勾选的；</t>
+    </r>
+  </si>
+  <si>
+    <t>【取消计算】</t>
+  </si>
+  <si>
+    <t>降价单价*付款通知单行数量*降价系数（0.1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员（行）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款通知单行—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品采购业务员降价奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>—&gt;奖金计算记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金计算记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单金额*1.3‰奖金系数（千分之4：包装业务员奖金系数，预制参数设置）*产品系数*新产品系数*交货期逾期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价奖金=应享受降价单价*付款通知单行数量*降价系数（0.1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款通知单—&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品系数档案（业务员档案、财务维护）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货期逾期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品奖金+业务奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>付款单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‰（奖金系数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新产品系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交货期逾期系数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，根据逾期日期规则判断，没有逾期则无预期系数）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>应享受降价单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付款通知单行数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降价系数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>奖金合计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务奖金+新产品奖金+降价奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值1，可改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取预制参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装业务员奖金  不分批转  业务员奖金（付款金额  行对应关系，是业务员奖金对应，不可分批）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购业务员奖金  不分批转  业务员奖金（付款金额  行对应关系，是业务员奖金对应，可分批）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品奖金+业务奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单金额      —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品系数        —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货期逾期系数  —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付款单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‰（奖金系数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新产品系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交货期逾期系数</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应享受降价单价  —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款通知单行数量 —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价系数        —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品系数      —&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品档案系数-系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应享受降价单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付款通知单行数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降价系数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取预制参数（默认0.1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款通知单行-行数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品降价档案-可算降价单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据逾期日期规则判断，没有逾期则无预期系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">逾期规则：下单日小于等于30天，则计算奖金；如果大于30天，小于等于交货日期也计算奖金；如果大于30天并且大于交货日期，则逾期系数为-1，负奖金，需要扣奖金；
+如果库存采购的不受30天规则限制，无交货期逾期控制，都有奖金，即U9中批号对应不到收购单。库存采购指没有被预留线索对应的，如果已对应的，则仍受的30天限制。
+在奖金计算时，如果该批号对应的订单已取消，转为公共库存。则不受30天限制，无交货期逾期控制，都有奖金。
+总结：
+存在库存合同先制单付款，后对应到具体订单消耗的情况，做奖金计算时，截止到奖金计算时间的库存合同入库单并且对应到具体订单消耗的，都受规则限制，但已算过奖金的付款通知单行，不再计算。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员奖金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、实体事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【取消计算】 勾选的会计期间前后的会计期间状态必须是“未计算”的，否则提示不允许取消；
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 勾选的会计期间内的所有付款单通知单必须已审核，否则提示哪些单据未审核（一次性提示），相反的，如果奖金已计算完，已审核的付款通知单不允许弃审；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【补算】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过计算范围选择性的选择业务员进行奖金的补算，补算可以跨月进行，补算完后，记录补算的结果，并产生差异明细。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、勾选的会计期间前后的会计期间状态必须是“未计算”的，否则提示不允许取消；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、校验通过后，删除勾选的会计期间对应的包装业务员奖金计算结果，即“包装业务员奖金”实体。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选的会计期间必须是当前月度前的会计期间并且期间状态是“未计算”的；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选的会计期间前一个会计期间必须已完成计算，如果勾选多个，则必须是连续性的会计期间，中间不允许出现未计算的或者没有勾选的；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【计算】(后台校验）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【计算】（前台校验）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降价奖金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应享受降价单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付款通知单行数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降价系数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（后台默认值）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品采购业务员奖金计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界面加载时，默认加载当前年度的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个会计期间（从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会计期间实体中加载），以及期间的奖金计算状态（从奖金计算记录中加载）、操作人、操作时间。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【计算范围】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【计算规则】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单价状态 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7348,6 +8402,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -7515,7 +8578,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7675,21 +8738,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7709,6 +8757,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7776,16 +8887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12669</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>100143</xdr:rowOff>
+      <xdr:rowOff>72314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7808,8 +8919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="2228850"/>
-          <a:ext cx="5499069" cy="3700593"/>
+          <a:off x="5305425" y="876300"/>
+          <a:ext cx="7467600" cy="5025314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7820,16 +8931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>64427</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>102527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>434842</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>28401</xdr:rowOff>
+      <xdr:colOff>253867</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7852,7 +8963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429625" y="12923177"/>
+          <a:off x="8248650" y="12618377"/>
           <a:ext cx="5911717" cy="2021374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7866,6 +8977,143 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="2056205"/>
+          <a:ext cx="8572498" cy="3592120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="12068175"/>
+          <a:ext cx="9410700" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231744</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>130427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="16687800"/>
+          <a:ext cx="5499069" cy="1444877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8435,17 +9683,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H158"/>
+  <dimension ref="A2:N245"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -10006,40 +11259,948 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="3"/>
-    </row>
-    <row r="150" spans="3:3">
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="3:3">
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="3:3">
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="3:3">
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="3:3">
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="3:3">
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="3:3">
-      <c r="C158" s="3"/>
+    <row r="130" spans="1:14" s="65" customFormat="1"/>
+    <row r="131" spans="1:14" s="65" customFormat="1"/>
+    <row r="132" spans="1:14" s="65" customFormat="1"/>
+    <row r="133" spans="1:14" s="65" customFormat="1"/>
+    <row r="134" spans="1:14" s="65" customFormat="1">
+      <c r="A134" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D134" s="75"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="D135" s="65"/>
+      <c r="E135" s="83" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F135" s="84" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G135" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H135" s="83" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I135" s="83" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
+      <c r="G136" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="C137" s="65" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E137" s="83"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="43" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H137" s="43" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I137" s="83"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="82" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G138" s="43" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H138" s="65"/>
+      <c r="I138" s="83"/>
+    </row>
+    <row r="139" spans="1:14" s="65" customFormat="1">
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="43" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I139" s="83"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="65"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D140" s="43"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="65"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="K141" s="65"/>
+      <c r="L141" s="65"/>
+      <c r="M141" s="65"/>
+      <c r="N141" s="65"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="65"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="J142" s="84"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="65"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="65" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D143" s="43" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="J143" s="83"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="65"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="J144" s="83"/>
+      <c r="M144" s="65"/>
+      <c r="N144" s="65"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="65"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="J145" s="82"/>
+      <c r="M145" s="65"/>
+      <c r="N145" s="65"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="65"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="43" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E146" s="43" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="J146" s="83"/>
+      <c r="M146" s="65"/>
+      <c r="N146" s="65"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="31" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="65"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="31"/>
+      <c r="B148" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="C148" s="94" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="65"/>
+      <c r="C149" s="94" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D149" s="65"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="65"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="65"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="94" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D150" s="65"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="65"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="65"/>
+      <c r="B152" s="31">
+        <v>3.2</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="65"/>
+      <c r="C153" s="58" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="65"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="33" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65"/>
+      <c r="H154" s="65"/>
+    </row>
+    <row r="155" spans="1:14" s="65" customFormat="1">
+      <c r="D155" s="33" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+    </row>
+    <row r="156" spans="1:14" s="65" customFormat="1">
+      <c r="C156" s="65" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+    </row>
+    <row r="157" spans="1:14" s="65" customFormat="1">
+      <c r="D157" s="33" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+    </row>
+    <row r="158" spans="1:14" s="65" customFormat="1">
+      <c r="B158" s="58"/>
+      <c r="C158" s="58" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="65" customFormat="1">
+      <c r="B159" s="58"/>
+      <c r="C159" s="58" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D159" s="61" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="65"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="33" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="65"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="65"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="65"/>
+      <c r="B162" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D162" s="65"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="65"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="65"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="65"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="65"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B164" s="31"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
+      <c r="H164" s="65"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="65"/>
+      <c r="B165" s="58" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C165" s="58"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="65"/>
+      <c r="H165" s="65"/>
+    </row>
+    <row r="166" spans="1:8" s="65" customFormat="1">
+      <c r="B166" s="58" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="65"/>
+      <c r="B167" s="58" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="65"/>
+      <c r="B168" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C168" s="65"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="65"/>
+    </row>
+    <row r="169" spans="1:8" s="65" customFormat="1">
+      <c r="B169" s="65" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="65" customFormat="1"/>
+    <row r="171" spans="1:8">
+      <c r="A171" s="31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+    </row>
+    <row r="172" spans="1:8" s="65" customFormat="1">
+      <c r="A172" s="31"/>
+      <c r="B172" s="31" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="65"/>
+      <c r="B173" s="58" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E173" s="65"/>
+      <c r="F173" s="65"/>
+      <c r="G173" s="65"/>
+      <c r="H173" s="65"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="65"/>
+      <c r="B174" s="58" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E174" s="65"/>
+      <c r="F174" s="65"/>
+      <c r="G174" s="65"/>
+      <c r="H174" s="65"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="65"/>
+      <c r="B175" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H175" s="65"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="65"/>
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="65"/>
+    </row>
+    <row r="204" spans="4:8">
+      <c r="D204" s="83" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E204" s="85" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F204" s="85" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G204" s="43"/>
+      <c r="H204" s="65"/>
+    </row>
+    <row r="205" spans="4:8">
+      <c r="D205" s="83"/>
+      <c r="E205" s="85" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F205" s="85" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G205" s="43"/>
+      <c r="H205" s="65"/>
+    </row>
+    <row r="206" spans="4:8">
+      <c r="D206" s="83"/>
+      <c r="E206" s="85" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F206" s="85"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="65"/>
+    </row>
+    <row r="207" spans="4:8">
+      <c r="D207" s="83"/>
+      <c r="E207" s="85" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F207" s="85"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="65"/>
+    </row>
+    <row r="208" spans="4:8">
+      <c r="D208" s="83"/>
+      <c r="E208" s="85" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F208" s="85" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G208" s="43"/>
+      <c r="H208" s="65"/>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="D209" s="83"/>
+      <c r="E209" s="85" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F209" s="58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+    </row>
+    <row r="210" spans="2:10">
+      <c r="D210" s="83"/>
+      <c r="E210" s="86" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F210" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+    </row>
+    <row r="211" spans="2:10">
+      <c r="D211" s="83"/>
+      <c r="E211" s="86" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F211" s="58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="85"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+    </row>
+    <row r="213" spans="2:10">
+      <c r="B213" s="65"/>
+      <c r="C213" s="65"/>
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="85" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G213" s="65" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H213" s="43"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+    </row>
+    <row r="214" spans="2:10">
+      <c r="B214" s="65"/>
+      <c r="C214" s="65"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="85"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+    </row>
+    <row r="215" spans="2:10">
+      <c r="B215" s="65"/>
+      <c r="C215" s="65"/>
+      <c r="D215" s="65"/>
+      <c r="E215" s="65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F215" s="85" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G215" s="85"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="65"/>
+    </row>
+    <row r="216" spans="2:10">
+      <c r="B216" s="65"/>
+      <c r="C216" s="65"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="85"/>
+      <c r="G216" s="85"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+    </row>
+    <row r="217" spans="2:10">
+      <c r="B217" s="65"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="83" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F217" s="85" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G217" s="85" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H217" s="43"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="65"/>
+    </row>
+    <row r="218" spans="2:10">
+      <c r="B218" s="65"/>
+      <c r="C218" s="65"/>
+      <c r="D218" s="65"/>
+      <c r="E218" s="83"/>
+      <c r="F218" s="85" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G218" s="85" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H218" s="43"/>
+      <c r="I218" s="65"/>
+      <c r="J218" s="65"/>
+    </row>
+    <row r="219" spans="2:10">
+      <c r="B219" s="65"/>
+      <c r="C219" s="65"/>
+      <c r="D219" s="65"/>
+      <c r="E219" s="83"/>
+      <c r="F219" s="85" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G219" s="85"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="65"/>
+      <c r="J219" s="65"/>
+    </row>
+    <row r="220" spans="2:10">
+      <c r="B220" s="65"/>
+      <c r="C220" s="65"/>
+      <c r="D220" s="65"/>
+      <c r="E220" s="83"/>
+      <c r="F220" s="85" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G220" s="85"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="65"/>
+      <c r="J220" s="65"/>
+    </row>
+    <row r="221" spans="2:10">
+      <c r="B221" s="65"/>
+      <c r="C221" s="65"/>
+      <c r="D221" s="65"/>
+      <c r="E221" s="83"/>
+      <c r="F221" s="85" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G221" s="85" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H221" s="43"/>
+      <c r="I221" s="65"/>
+      <c r="J221" s="65"/>
+    </row>
+    <row r="222" spans="2:10">
+      <c r="B222" s="65"/>
+      <c r="C222" s="65"/>
+      <c r="D222" s="85"/>
+      <c r="E222" s="83"/>
+      <c r="F222" s="85" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G222" s="58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H222" s="65"/>
+      <c r="I222" s="65"/>
+      <c r="J222" s="65"/>
+    </row>
+    <row r="223" spans="2:10">
+      <c r="B223" s="65"/>
+      <c r="C223" s="65"/>
+      <c r="D223" s="85"/>
+      <c r="E223" s="83"/>
+      <c r="F223" s="86" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G223" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H223" s="65"/>
+      <c r="I223" s="65"/>
+      <c r="J223" s="65"/>
+    </row>
+    <row r="224" spans="2:10">
+      <c r="B224" s="65"/>
+      <c r="C224" s="65"/>
+      <c r="D224" s="85"/>
+      <c r="E224" s="83"/>
+      <c r="F224" s="86" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G224" s="58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+    </row>
+    <row r="225" spans="2:10">
+      <c r="B225" s="65"/>
+      <c r="C225" s="65"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="B226" s="65"/>
+      <c r="C226" s="65"/>
+      <c r="D226" s="65" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E226" s="43"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="65"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="65"/>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="B227" s="65"/>
+      <c r="C227" s="65"/>
+      <c r="D227" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E227" s="43"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="B228" s="65"/>
+      <c r="C228" s="65"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="B229" s="65"/>
+      <c r="C229" s="65"/>
+      <c r="D229" s="65"/>
+      <c r="E229" s="65"/>
+      <c r="F229" s="65"/>
+      <c r="G229" s="65"/>
+      <c r="H229" s="65"/>
+      <c r="I229" s="65"/>
+      <c r="J229" s="65"/>
+    </row>
+    <row r="230" spans="2:10">
+      <c r="B230" s="65"/>
+      <c r="D230" s="65" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E230" s="86" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F230" s="65"/>
+      <c r="G230" s="65"/>
+      <c r="H230" s="65"/>
+      <c r="I230" s="65"/>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" s="65"/>
+      <c r="C231" s="65"/>
+      <c r="D231" s="65" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E231" s="43" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F231" s="65"/>
+      <c r="G231" s="65"/>
+      <c r="H231" s="65"/>
+      <c r="I231" s="65"/>
+      <c r="J231" s="65"/>
+    </row>
+    <row r="233" spans="2:10">
+      <c r="C233" s="88" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D233" s="85" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E233" s="89" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F233" s="65"/>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="C234" s="88"/>
+      <c r="D234" s="65"/>
+      <c r="E234" s="65"/>
+      <c r="F234" s="65"/>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="C235" s="88"/>
+      <c r="D235" s="91" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E235" s="92" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F235" s="65"/>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="E236" s="85"/>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="D237" s="85" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E237" s="93" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F237" s="87" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10">
+      <c r="E238" s="85" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F238" s="87" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10">
+      <c r="E239" s="85" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F239" s="87"/>
+    </row>
+    <row r="240" spans="2:10">
+      <c r="E240" s="85" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F240" s="90" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H240" s="65"/>
+      <c r="I240" s="65"/>
+      <c r="J240" s="65"/>
+    </row>
+    <row r="241" spans="4:7">
+      <c r="G241" s="90" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="242" spans="4:7">
+      <c r="D242" s="31"/>
+    </row>
+    <row r="243" spans="4:7">
+      <c r="D243" s="91" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="244" spans="4:7">
+      <c r="D244" s="31"/>
+      <c r="E244" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="245" spans="4:7">
+      <c r="E245" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1475</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="J142:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="I135:I139"/>
+    <mergeCell ref="E217:E224"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="E135:E139"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" location="单据基类!A1" display="单据基类"/>
@@ -10047,6 +12208,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10055,7 +12217,7 @@
   <dimension ref="A2:P188"/>
   <sheetViews>
     <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:C189"/>
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14963,7 +17125,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15031,7 +17193,7 @@
       <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="24">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="76" t="s">
         <v>972</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -15054,7 +17216,7 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="24">
-      <c r="A4" s="66"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="25" t="s">
         <v>1024</v>
       </c>
@@ -15075,7 +17237,7 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="24">
-      <c r="A5" s="66"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="25" t="s">
         <v>1025</v>
       </c>
@@ -15096,7 +17258,7 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="66"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
@@ -15109,7 +17271,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="27">
-      <c r="A7" s="66"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="25" t="s">
         <v>1026</v>
       </c>
@@ -15134,14 +17296,14 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="66"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="25" t="s">
         <v>1027</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="74" t="s">
         <v>1146</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -15159,7 +17321,7 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="66"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15180,7 +17342,7 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="66"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="25" t="s">
         <v>1029</v>
       </c>
@@ -15203,7 +17365,7 @@
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="66"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15222,17 +17384,17 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="24">
-      <c r="A12" s="66"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="25" t="s">
         <v>1031</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>983</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="79" t="s">
         <v>1148</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="81" t="s">
         <v>1160</v>
       </c>
       <c r="F12" s="26"/>
@@ -15245,15 +17407,15 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="24">
-      <c r="A13" s="66"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="25" t="s">
         <v>1030</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="26"/>
       <c r="G13" s="25"/>
       <c r="H13" s="27">
@@ -15264,7 +17426,7 @@
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="66"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15283,7 +17445,7 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="66"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15304,7 +17466,7 @@
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="66"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15325,7 +17487,7 @@
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="66"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="25" t="s">
         <v>1028</v>
       </c>
@@ -15346,7 +17508,7 @@
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="66"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="25" t="s">
         <v>1032</v>
       </c>
@@ -15367,7 +17529,7 @@
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="66"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -15380,7 +17542,7 @@
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="67"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -16220,15 +18382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1073</v>
@@ -16250,10 +18412,10 @@
         <v>1251</v>
       </c>
       <c r="E3" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>1351</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -16261,15 +18423,15 @@
         <v>1252</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>1353</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="D5" s="32" t="s">
-        <v>1253</v>
+        <v>1394</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -16287,17 +18449,20 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
+      <c r="I7" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="66" t="s">
         <v>1074</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="66" t="s">
         <v>1075</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="66" t="s">
         <v>1076</v>
       </c>
       <c r="F8" s="3"/>
@@ -16308,11 +18473,11 @@
       <c r="C9" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="68" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>1351</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -16326,92 +18491,92 @@
         <v>11</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="D12" s="71" t="s">
-        <v>1323</v>
+      <c r="D12" s="66" t="s">
+        <v>1322</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>1254</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>1255</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="D13" s="8" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>1257</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>1258</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="D14" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>1259</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>1260</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>1324</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="66" t="s">
         <v>1325</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="D16" s="71" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>1263</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>1264</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="K16" s="75"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="72" t="s">
-        <v>1336</v>
+      <c r="D17" s="67" t="s">
+        <v>1335</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>1265</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>1266</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -16420,65 +18585,65 @@
     </row>
     <row r="18" spans="4:12">
       <c r="D18" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>1267</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>1268</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="4:12">
       <c r="D19" s="8" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="73" t="s">
-        <v>1334</v>
+      <c r="D20" s="68" t="s">
+        <v>1333</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>1271</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>1272</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="4:12">
       <c r="D21" s="8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>1273</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>1274</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="4:12">
       <c r="D22" s="8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>1275</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>1276</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -16488,206 +18653,206 @@
         <v>293</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>1277</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>1278</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="71" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="68" t="s">
         <v>1337</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25" s="73" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>1281</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>1282</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="73" t="s">
-        <v>1339</v>
+      <c r="D26" s="68" t="s">
+        <v>1338</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="73" t="s">
-        <v>1340</v>
+      <c r="D27" s="68" t="s">
+        <v>1339</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="73" t="s">
-        <v>1341</v>
+      <c r="D28" s="68" t="s">
+        <v>1340</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="73" t="s">
-        <v>1342</v>
+      <c r="D29" s="68" t="s">
+        <v>1341</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>1288</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>1289</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="73" t="s">
-        <v>1343</v>
+      <c r="D30" s="68" t="s">
+        <v>1342</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>1290</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>1291</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="73" t="s">
-        <v>1344</v>
+      <c r="D31" s="68" t="s">
+        <v>1343</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="73" t="s">
-        <v>1345</v>
+      <c r="D32" s="68" t="s">
+        <v>1344</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="D33" s="73" t="s">
-        <v>1346</v>
+      <c r="D33" s="68" t="s">
+        <v>1345</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="D34" s="73" t="s">
-        <v>1347</v>
+      <c r="D34" s="68" t="s">
+        <v>1346</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="D35" s="73" t="s">
-        <v>1348</v>
+      <c r="D35" s="68" t="s">
+        <v>1347</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="D36" s="73" t="s">
-        <v>1349</v>
+      <c r="D36" s="68" t="s">
+        <v>1348</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="3:8" ht="14.25">
-      <c r="D37" s="74" t="s">
-        <v>1350</v>
+      <c r="D37" s="69" t="s">
+        <v>1349</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="66" t="s">
         <v>1074</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="66" t="s">
         <v>1075</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="66" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -16695,11 +18860,11 @@
       <c r="C41" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="68" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E41" s="68" t="s">
         <v>1353</v>
-      </c>
-      <c r="E41" s="73" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="43" spans="3:8">
@@ -16713,252 +18878,252 @@
         <v>11</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="3:8">
-      <c r="D44" s="71" t="s">
-        <v>1329</v>
+      <c r="D44" s="66" t="s">
+        <v>1328</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>1304</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>1305</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="3:8">
       <c r="D45" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>1307</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>1308</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="3:8">
       <c r="D46" s="8" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>1310</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>1311</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="3:8">
       <c r="D47" s="8" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>1313</v>
-      </c>
       <c r="G47" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="3:8">
       <c r="D48" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="3:8">
       <c r="D49" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>1315</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>1316</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="3:8">
       <c r="D50" s="8" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="3:8">
       <c r="D51" s="8" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="3:8">
       <c r="D52" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="3:8">
       <c r="D53" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="3:8">
       <c r="D54" s="8" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>1321</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>1322</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="3:8">
       <c r="D55" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="3:8">
       <c r="D56" s="8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="D57" s="77" t="s">
-        <v>1386</v>
+      <c r="D57" s="72" t="s">
+        <v>1385</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="3:8">
       <c r="D58" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="3:8">
       <c r="D59" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="61" spans="3:8">
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="66" t="s">
         <v>1074</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="66" t="s">
         <v>1075</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="66" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -16974,7 +19139,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>13</v>
@@ -16982,80 +19147,80 @@
     </row>
     <row r="65" spans="1:8">
       <c r="D65" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="D66" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
       <c r="D67" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="D68" s="8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
       <c r="D69" s="8" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="D70" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -17077,7 +19242,7 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="C75" s="78"/>
+      <c r="C75" s="73"/>
     </row>
     <row r="76" spans="1:8">
       <c r="C76" s="57"/>
@@ -17112,12 +19277,12 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" s="58" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -17149,7 +19314,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1073</v>
@@ -17212,8 +19377,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" s="5" t="s">
@@ -17226,7 +19391,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>13</v>
@@ -17242,9 +19407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -18215,7 +20378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -18759,9 +20922,7 @@
   </sheetPr>
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -18884,15 +21045,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J134"/>
+  <dimension ref="A2:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -19848,7 +22009,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:8">
       <c r="D81" s="8" t="s">
         <v>656</v>
       </c>
@@ -19861,7 +22022,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:8">
       <c r="D82" s="8" t="s">
         <v>284</v>
       </c>
@@ -19874,7 +22035,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:8">
       <c r="D83" s="8" t="s">
         <v>282</v>
       </c>
@@ -19887,7 +22048,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:8">
       <c r="D84" s="8" t="s">
         <v>324</v>
       </c>
@@ -19900,7 +22061,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:8">
       <c r="D85" s="8" t="s">
         <v>363</v>
       </c>
@@ -19913,7 +22074,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:8">
       <c r="D86" s="8" t="s">
         <v>122</v>
       </c>
@@ -19926,7 +22087,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:8">
       <c r="D87" s="8" t="s">
         <v>631</v>
       </c>
@@ -19939,7 +22100,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:8">
       <c r="D88" s="8" t="s">
         <v>423</v>
       </c>
@@ -19952,151 +22113,274 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
+    <row r="89" spans="1:8" s="65" customFormat="1">
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+    </row>
+    <row r="90" spans="1:8" s="65" customFormat="1">
+      <c r="A90" s="65">
+        <v>2</v>
+      </c>
+      <c r="B90" s="65" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="C91" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="65" customFormat="1">
+      <c r="D92" s="43"/>
+    </row>
+    <row r="93" spans="1:8" s="65" customFormat="1">
+      <c r="B93" s="65">
+        <v>2.1</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="65" customFormat="1">
+      <c r="C94" s="65" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D94" s="43"/>
+    </row>
+    <row r="95" spans="1:8" s="65" customFormat="1">
+      <c r="D95" s="43"/>
+    </row>
+    <row r="96" spans="1:8" s="65" customFormat="1">
+      <c r="C96" s="65" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="65" customFormat="1">
+      <c r="D97" s="43"/>
+    </row>
+    <row r="98" spans="1:10" s="65" customFormat="1">
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" s="65" customFormat="1">
+      <c r="C99" s="65" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="65" customFormat="1">
+      <c r="D100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" s="65" customFormat="1">
+      <c r="C101" s="65" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="65" customFormat="1">
+      <c r="D102" s="43"/>
+    </row>
+    <row r="103" spans="1:10" s="65" customFormat="1">
+      <c r="B103" s="65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C103" s="65" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="65" customFormat="1">
+      <c r="D104" s="43"/>
+    </row>
+    <row r="105" spans="1:10" s="65" customFormat="1">
+      <c r="D105" s="43"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="B92" s="31">
+    <row r="108" spans="1:10">
+      <c r="B108" s="31">
         <v>2.1</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C108" s="31" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="C93" s="58" t="s">
+    <row r="109" spans="1:10">
+      <c r="C109" s="58" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="C94" s="58" t="s">
+    <row r="110" spans="1:10">
+      <c r="C110" s="58" t="s">
         <v>1228</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="C95" t="s">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="C111" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="C96" s="58" t="s">
+    <row r="112" spans="1:10">
+      <c r="C112" s="58" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="C97" s="58" t="s">
+    <row r="113" spans="2:3">
+      <c r="C113" s="58" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="C98" s="58" t="s">
+    <row r="114" spans="2:3">
+      <c r="C114" s="58" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="C99" s="58" t="s">
+    <row r="115" spans="2:3">
+      <c r="C115" s="58" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
-      <c r="C100" s="58" t="s">
+    <row r="116" spans="2:3">
+      <c r="C116" s="58" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="C101" s="57" t="s">
+    <row r="117" spans="2:3">
+      <c r="C117" s="57" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="31">
+    <row r="119" spans="2:3">
+      <c r="B119" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C119" s="31" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="C104" s="58" t="s">
+    <row r="120" spans="2:3">
+      <c r="C120" s="58" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
-      <c r="C105" s="58" t="s">
+    <row r="121" spans="2:3">
+      <c r="C121" s="58" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="C106" s="58" t="s">
+    <row r="122" spans="2:3">
+      <c r="C122" s="58" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="C107" s="58" t="s">
+    <row r="123" spans="2:3">
+      <c r="C123" s="58" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="C108" s="59" t="s">
+    <row r="124" spans="2:3">
+      <c r="C124" s="59" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="B113" s="31">
+    <row r="126" spans="2:3">
+      <c r="C126" s="59" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="C127" s="59"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C129" s="31" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="31" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="31" t="s">
         <v>1242</v>
       </c>
-      <c r="B126" s="31"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="B128" t="s">
+      <c r="B142" s="31"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
+    <row r="145" spans="1:2">
+      <c r="B145" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
+    <row r="146" spans="1:2">
+      <c r="B146" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="147" spans="1:2">
+      <c r="B147" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
+    <row r="148" spans="1:2">
+      <c r="B148" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="149" spans="1:2">
+      <c r="B149" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="150" spans="1:2">
+      <c r="B150" t="s">
         <v>1244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
@@ -20107,7 +22391,8 @@
     <hyperlink ref="F54" location="预付款通知单!A1" display="预付款通知单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
